--- a/medicine/Premiers secours et secourisme/Rettungsgasse/Rettungsgasse.xlsx
+++ b/medicine/Premiers secours et secourisme/Rettungsgasse/Rettungsgasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Couloir de sécurité
-La Rettungsgasse (terme allemand, « voie d'urgence » en français ou  « couloir de secours » en Belgique[1]), est une voie mise en place sur des chaussées à voies multiples (comme sur les autoroutes) en cas de ralentissements et d'accidents dans certains pays du centre et de l'Est de l'Europe, comme l'Allemagne.
+La Rettungsgasse (terme allemand, « voie d'urgence » en français ou  « couloir de secours » en Belgique), est une voie mise en place sur des chaussées à voies multiples (comme sur les autoroutes) en cas de ralentissements et d'accidents dans certains pays du centre et de l'Est de l'Europe, comme l'Allemagne.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès l'apparition d'un fort ralentissement sur autoroute et chaussées à plusieurs voies (voies rapides), les automobilistes créent une voie entre les deux files les plus à gauche afin que les véhicules de secours et de dépannage puissent passer sans être bloqués eux-mêmes par le bouchon routier. Cette voie d'urgence doit se faire dès le début d'un fort ralentissement et sans attendre l'arrivée des premiers véhicules de secours. 
-Ce comportement est obligatoire en Allemagne, en République tchèque, en Autriche, au Luxembourg[2] et en Hongrie ; il est optionnel en Suisse et en Slovénie. La bande d'arrêt d'urgence (à droite des files de circulation) n'est quant à elle pas utilisée par les secours, contrairement à la France.
+Ce comportement est obligatoire en Allemagne, en République tchèque, en Autriche, au Luxembourg et en Hongrie ; il est optionnel en Suisse et en Slovénie. La bande d'arrêt d'urgence (à droite des files de circulation) n'est quant à elle pas utilisée par les secours, contrairement à la France.
 Dans le cas de l'Allemagne et de l'Autriche, peu importe le nombre de voies disponibles : les automobilistes de la file de gauche serrent le plus à gauche possible, tous les autres serrent le plus à droite possible (en empiétant sur la bande d'arrêt d'urgence).
-En République tchèque le principe est différent : la deuxième voie la plus à droite est à tenir libre[3]
-Un non-respect de la « Rettungsgasse » en Allemagne est passible, au 1er août 2018, d'une amende comprise entre 200 et 320 euros[4].
+En République tchèque le principe est différent : la deuxième voie la plus à droite est à tenir libre
+Un non-respect de la « Rettungsgasse » en Allemagne est passible, au 1er août 2018, d'une amende comprise entre 200 et 320 euros.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>En Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Europe, neuf pays connaissent un système similaire : Autriche, République tchèque, Allemagne, Hongrie, Luxembourg, Pologne, Slovénie, et Suisse ; la Belgique est le neuvième depuis octobre 2020[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, neuf pays connaissent un système similaire : Autriche, République tchèque, Allemagne, Hongrie, Luxembourg, Pologne, Slovénie, et Suisse ; la Belgique est le neuvième depuis octobre 2020.
 </t>
         </is>
       </c>
